--- a/SystemMailTracking/Files/SystemEmails.xlsx
+++ b/SystemMailTracking/Files/SystemEmails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="4104"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="4104" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="77">
   <si>
     <t>TCID</t>
   </si>
@@ -208,13 +208,52 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>BroadCastEmail</t>
+  </si>
+  <si>
+    <t>VerifyBroadcastMail</t>
+  </si>
+  <si>
+    <t>VerifyBroadcastEmailFromInbox</t>
+  </si>
+  <si>
+    <t>BroadcastEmailAddress</t>
+  </si>
+  <si>
+    <t>BroadCastEmailSubject</t>
+  </si>
+  <si>
+    <t>BroadCastEmailContent</t>
+  </si>
+  <si>
+    <t>BroadCastEmailTextContent</t>
+  </si>
+  <si>
+    <t>broadcast@mailinator.com</t>
+  </si>
+  <si>
+    <t>Test Automation Subject</t>
+  </si>
+  <si>
+    <t>Test Automation Content</t>
+  </si>
+  <si>
+    <t>Test Content Automation</t>
+  </si>
+  <si>
+    <t>Rfsupporttest@mailinator.com</t>
+  </si>
+  <si>
+    <t>SentEmailFrom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +276,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +317,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +369,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -346,6 +397,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,9 +706,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -665,8 +730,8 @@
       <c r="A2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
+      <c r="B2" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -681,7 +746,15 @@
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
     </row>
@@ -692,10 +765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1042,6 +1115,105 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:5" ht="28.8">
+      <c r="A29" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" ht="28.8">
+      <c r="A32" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1050,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1063,7 +1235,7 @@
     <col min="4" max="4" width="33.21875" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
@@ -1126,8 +1298,8 @@
       <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
+      <c r="A3" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>11</v>
@@ -1205,8 +1377,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="24" customHeight="1">
-      <c r="A7" t="s">
-        <v>2</v>
+      <c r="A7" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>11</v>
@@ -1244,8 +1416,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="28.8" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>2</v>
+      <c r="A11" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>11</v>
@@ -1258,6 +1430,63 @@
       </c>
       <c r="E11" s="15" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1265,8 +1494,10 @@
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="G15" r:id="rId4"/>
+    <hyperlink ref="C15" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/SystemMailTracking/Files/SystemEmails.xlsx
+++ b/SystemMailTracking/Files/SystemEmails.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{17C4856A-C346-4C1D-837A-5DD096448677}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="4104" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="4104" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="82">
   <si>
     <t>TCID</t>
   </si>
@@ -204,12 +205,6 @@
     <t>Data saved successfully.</t>
   </si>
   <si>
-    <t>autocontact111@mailinator.com</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>BroadCastEmail</t>
   </si>
   <si>
@@ -231,9 +226,6 @@
     <t>BroadCastEmailTextContent</t>
   </si>
   <si>
-    <t>broadcast@mailinator.com</t>
-  </si>
-  <si>
     <t>Test Automation Subject</t>
   </si>
   <si>
@@ -247,13 +239,37 @@
   </si>
   <si>
     <t>SentEmailFrom</t>
+  </si>
+  <si>
+    <t>GmailUrl</t>
+  </si>
+  <si>
+    <t>xponoacc@gmail.com</t>
+  </si>
+  <si>
+    <t>GmailPassword</t>
+  </si>
+  <si>
+    <t>password@12</t>
+  </si>
+  <si>
+    <t>Search the contact and delete it</t>
+  </si>
+  <si>
+    <t>deletecontact</t>
+  </si>
+  <si>
+    <t>automationcontact1@mailinator.com</t>
+  </si>
+  <si>
+    <t>deletecontactTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,7 +299,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +391,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -404,13 +426,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -418,6 +443,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -464,7 +497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,9 +529,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,6 +581,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -705,20 +774,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,35 +795,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="B4" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
     </row>
@@ -764,14 +841,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -780,7 +857,7 @@
     <col min="5" max="5" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>48</v>
       </c>
@@ -812,7 +889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -827,7 +904,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" s="11" customFormat="1">
+    <row r="4" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>48</v>
       </c>
@@ -840,7 +917,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>48</v>
       </c>
@@ -853,7 +930,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
@@ -868,7 +945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1">
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
@@ -883,7 +960,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>48</v>
       </c>
@@ -896,14 +973,14 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1">
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -918,7 +995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -933,7 +1010,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" s="11" customFormat="1">
+    <row r="12" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -946,7 +1023,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="28.8">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -959,7 +1036,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -974,7 +1051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -989,7 +1066,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="43.2">
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -1002,14 +1079,14 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1">
+    <row r="17" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>45</v>
       </c>
@@ -1024,7 +1101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>45</v>
       </c>
@@ -1039,7 +1116,7 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1">
+    <row r="20" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>45</v>
       </c>
@@ -1052,7 +1129,7 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:5" ht="28.8">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>45</v>
       </c>
@@ -1065,7 +1142,7 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>45</v>
       </c>
@@ -1080,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
@@ -1091,11 +1168,11 @@
         <v>9</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>45</v>
       </c>
@@ -1108,111 +1185,181 @@
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" s="31" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:5" s="31" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" ht="28.8">
-      <c r="A29" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="1:5" ht="28.8">
-      <c r="A32" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1221,22 +1368,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="4" max="4" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
     <col min="6" max="6" width="28.5546875" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="15" max="15" width="32.77734375" customWidth="1"/>
@@ -1244,12 +1391,12 @@
     <col min="17" max="17" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1">
+    <row r="1" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1">
+    <row r="2" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1297,9 +1444,9 @@
       </c>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="1:17" s="11" customFormat="1">
-      <c r="A3" s="30" t="s">
-        <v>63</v>
+    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>11</v>
@@ -1313,8 +1460,8 @@
       <c r="E3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>62</v>
+      <c r="F3" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>27</v>
@@ -1346,7 +1493,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="1:17" s="11" customFormat="1">
+    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1354,37 +1501,37 @@
       <c r="E4" s="16"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="24" customHeight="1">
-      <c r="A7" s="30" t="s">
-        <v>63</v>
+    <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>62</v>
+      <c r="C7" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>42</v>
@@ -1393,48 +1540,54 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="28.8" customHeight="1">
-      <c r="A11" s="30" t="s">
-        <v>63</v>
+      <c r="F10" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="F11" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -1443,61 +1596,97 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="G15" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>75</v>
+      <c r="H15" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="C11" r:id="rId3"/>
-    <hyperlink ref="G15" r:id="rId4"/>
-    <hyperlink ref="C15" r:id="rId5"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G15" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="H15" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{E162A2E9-07A3-44F5-812C-72D0351C4BA4}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{8F984E2B-1C7C-428D-85AF-2B496B50FAC8}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{15CAF06F-1F5A-4AD6-8238-94E07D9A34BA}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{6750C8EF-C8B4-48FA-8A4C-8F5014A56911}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>